--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367547</v>
+        <v>450275.6437737592</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513932</v>
+        <v>8636206.831769025</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730742</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="U2" t="n">
-        <v>165.1725371760942</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663195</v>
+        <v>129.3420634549347</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>29.27406286320332</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>77.29308816345807</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443403</v>
+        <v>21.41405905276496</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663197</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="G5" t="n">
-        <v>88.09081815943048</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.00792621918458</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>74.8175551438276</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V6" t="n">
-        <v>69.08926941199994</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>69.37525200342668</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.21594625443403</v>
+        <v>36.43383855780544</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>116.8405921356966</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15.40229248514452</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663195</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.21594625443404</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>32.97950884736245</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>157.4775982853342</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851184</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>53.54735467376837</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>124.4808309317257</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.95878470060122</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>78.98707343142891</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>53.54735467376847</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>280.012713423117</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>381.4982846901452</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>148.6151831671109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247586</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>4.569119525008682</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.95866062610893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>186.8250998946398</v>
       </c>
       <c r="H20" t="n">
-        <v>48.26361229938025</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
         <v>89.59687541851115</v>
@@ -2210,7 +2210,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>93.35882079148004</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>142.4766448433867</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>39.52405900590492</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>299.3798747282129</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>164.2532214802697</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>125.5207888145555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>33.78298043858021</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.08802744677259</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>193.325230232812</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>378.174797653033</v>
+        <v>42.75007684909257</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>85.43964093246942</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>88.89700561060572</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>218.3799969300113</v>
+        <v>70.8334839493758</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>164.9502303766373</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>184.1110579343358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>131.05739124507</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.0277966611981</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.0880274467727</v>
+        <v>124.4808309317252</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>334.9753613846887</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>204.5947623500357</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>98.5440583627188</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>353.0612076227799</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>247.749597729319</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247811</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>53.54735467376889</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>241.6717296048498</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>114.5505532674854</v>
       </c>
       <c r="Y44" t="n">
-        <v>102.8695072550971</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>80.10802685100114</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.6770952877671</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678483</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058916</v>
+        <v>53.1018177918304</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079178</v>
+        <v>141.3070323458399</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644746</v>
+        <v>271.1217663066261</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123817</v>
+        <v>407.6508467588566</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985568</v>
+        <v>523.2361246735312</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020249</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652779</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="U2" t="n">
-        <v>583.2614020227585</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="V2" t="n">
-        <v>393.8416170062742</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="W2" t="n">
-        <v>204.4218319897899</v>
+        <v>142.3962386314752</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330556</v>
+        <v>64.32241220373976</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330556</v>
+        <v>64.32241220373976</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330556</v>
+        <v>64.32241220373976</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>51.36582106616825</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>150.9598290415669</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>286.5382069752474</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>431.9158668530691</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>550.1875401335679</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017051</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652779</v>
+        <v>509.3106579270999</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652779</v>
+        <v>360.9812426859799</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652779</v>
+        <v>212.6518274448598</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652779</v>
+        <v>212.6518274448598</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487936</v>
+        <v>212.6518274448598</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323093</v>
+        <v>64.32241220373976</v>
       </c>
       <c r="X3" t="n">
-        <v>181.842993615825</v>
+        <v>64.32241220373976</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330556</v>
+        <v>64.32241220373976</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230161</v>
+        <v>14.12595803543247</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170693</v>
+        <v>19.89179156510284</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396299</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.4024563932553</v>
+        <v>161.728413768076</v>
       </c>
       <c r="C5" t="n">
-        <v>293.4024563932553</v>
+        <v>161.728413768076</v>
       </c>
       <c r="D5" t="n">
-        <v>293.4024563932553</v>
+        <v>161.728413768076</v>
       </c>
       <c r="E5" t="n">
-        <v>293.4024563932553</v>
+        <v>161.728413768076</v>
       </c>
       <c r="F5" t="n">
-        <v>103.9826713767707</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678535</v>
+        <v>13.34259413586626</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159059007</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L5" t="n">
-        <v>191.874309407919</v>
+        <v>163.9284927306048</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644759</v>
+        <v>306.697379343248</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>456.3902241803914</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>584.4056715233288</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602026</v>
+        <v>659.1628932295215</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262245</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S5" t="n">
-        <v>672.2420264262245</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="T5" t="n">
-        <v>672.2420264262245</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="U5" t="n">
-        <v>672.2420264262245</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="V5" t="n">
-        <v>672.2420264262245</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="W5" t="n">
-        <v>672.2420264262245</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="X5" t="n">
-        <v>672.2420264262245</v>
+        <v>498.6626091182343</v>
       </c>
       <c r="Y5" t="n">
-        <v>482.8222414097399</v>
+        <v>330.1955114431552</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>301.4756378121077</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="C6" t="n">
-        <v>301.4756378121077</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="D6" t="n">
-        <v>152.5412281508564</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="E6" t="n">
-        <v>152.5412281508564</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="F6" t="n">
-        <v>152.5412281508564</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330558</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330558</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330558</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>59.33472114872539</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>167.4993528536689</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>313.079244429523</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546598</v>
+        <v>476.9208474646503</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476343</v>
+        <v>584.0017498697405</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017056</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652789</v>
+        <v>591.5564187692451</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652789</v>
+        <v>439.5527270846218</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652789</v>
+        <v>439.5527270846218</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487943</v>
+        <v>271.0856294095427</v>
       </c>
       <c r="V6" t="n">
-        <v>490.8954228285923</v>
+        <v>102.6185317344635</v>
       </c>
       <c r="W6" t="n">
-        <v>301.4756378121077</v>
+        <v>102.6185317344635</v>
       </c>
       <c r="X6" t="n">
-        <v>301.4756378121077</v>
+        <v>32.54251960979009</v>
       </c>
       <c r="Y6" t="n">
-        <v>301.4756378121077</v>
+        <v>32.54251960979009</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230163</v>
+        <v>20.64084305584014</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170695</v>
+        <v>31.59410626612414</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396302</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496267</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>133.0228471103728</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C8" t="n">
-        <v>133.0228471103728</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D8" t="n">
-        <v>133.0228471103728</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>133.0228471103728</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0228471103728</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.8121315905891</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079179</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644747</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123819</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>649.484525998557</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602025</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.102348665278</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262236</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>511.8624171433415</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>322.4426321268572</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U8" t="n">
-        <v>133.0228471103728</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V8" t="n">
-        <v>133.0228471103728</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W8" t="n">
-        <v>133.0228471103728</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X8" t="n">
-        <v>133.0228471103728</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.0228471103728</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330513</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330513</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330513</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024154</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772642</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140235</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.500058754659</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476335</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017047</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.102348665278</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>734.5444774681623</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>583.2614020227586</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>393.8416170062743</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U9" t="n">
-        <v>393.8416170062743</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V9" t="n">
-        <v>204.4218319897899</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.597933493125</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.635416552713</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3292.293186409815</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.266054653544</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.197773557246</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.6003534763939</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="C13" t="n">
-        <v>120.6003534763939</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="D13" t="n">
-        <v>120.6003534763939</v>
+        <v>192.2503294945327</v>
       </c>
       <c r="E13" t="n">
-        <v>120.6003534763939</v>
+        <v>192.2503294945327</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>192.2503294945327</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U13" t="n">
-        <v>410.0175235133545</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V13" t="n">
-        <v>410.0175235133545</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W13" t="n">
-        <v>120.6003534763939</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="X13" t="n">
-        <v>120.6003534763939</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.6003534763939</v>
+        <v>342.3669689068684</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1250.836169983545</v>
+        <v>1628.178203944122</v>
       </c>
       <c r="C14" t="n">
-        <v>1250.836169983545</v>
+        <v>1259.21568700371</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>900.94998839696</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008244</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>2014.778044008244</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5378,7 +5378,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125857</v>
@@ -5387,16 +5387,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>866.7987687739744</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>645.0321533435005</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U16" t="n">
-        <v>355.929286469144</v>
+        <v>638.0458811483703</v>
       </c>
       <c r="V16" t="n">
-        <v>355.929286469144</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218343</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218343</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218343</v>
+        <v>383.3613929424835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1698.509627919559</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="C17" t="n">
-        <v>1329.547110979147</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D17" t="n">
-        <v>971.2814123723965</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E17" t="n">
-        <v>971.2814123723965</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389512</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912081</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810547</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y17" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C18" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387288</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C19" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962282</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181842</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181842</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438278</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="V19" t="n">
-        <v>377.0996507379409</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="W19" t="n">
-        <v>87.68248070098031</v>
+        <v>218.0173361775773</v>
       </c>
       <c r="X19" t="n">
-        <v>87.68248070098031</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1685.375546116517</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C20" t="n">
-        <v>1685.375546116517</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D20" t="n">
-        <v>1327.109847509766</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E20" t="n">
-        <v>941.321594911522</v>
+        <v>552.807938939214</v>
       </c>
       <c r="F20" t="n">
-        <v>530.3356901219145</v>
+        <v>552.807938939214</v>
       </c>
       <c r="G20" t="n">
-        <v>115.2632399669109</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5764,25 +5764,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
         <v>2755.806928794324</v>
@@ -5791,13 +5791,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>2071.975386180638</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>2071.975386180638</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
@@ -5828,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>363.5187033424295</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C22" t="n">
-        <v>363.5187033424295</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
@@ -5937,25 +5937,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V22" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W22" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X22" t="n">
-        <v>363.5187033424295</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y22" t="n">
-        <v>363.5187033424295</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796252</v>
+        <v>1506.396382525582</v>
       </c>
       <c r="C23" t="n">
-        <v>921.7704558796252</v>
+        <v>1137.43386558517</v>
       </c>
       <c r="D23" t="n">
-        <v>563.5047572728747</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E23" t="n">
-        <v>563.5047572728747</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6001,13 +6001,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>1506.396382525582</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C25" t="n">
-        <v>87.68248070098099</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D25" t="n">
-        <v>87.68248070098099</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E25" t="n">
-        <v>87.68248070098099</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F25" t="n">
-        <v>87.68248070098099</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I25" t="n">
         <v>66.5121164321834</v>
@@ -6180,19 +6180,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1363.124011696101</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>994.1614947556893</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>994.1614947556893</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>608.373242157445</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6256,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3291.481598943938</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3037.951122217774</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267229</v>
+        <v>2706.888234874203</v>
       </c>
       <c r="W26" t="n">
-        <v>2513.328941997114</v>
+        <v>2354.119579604089</v>
       </c>
       <c r="X26" t="n">
-        <v>2139.863183736034</v>
+        <v>1980.653821343009</v>
       </c>
       <c r="Y26" t="n">
-        <v>1749.723851760223</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>848.0708164780106</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U28" t="n">
-        <v>848.0708164780106</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V28" t="n">
-        <v>848.0708164780106</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W28" t="n">
-        <v>848.0708164780106</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X28" t="n">
-        <v>848.0708164780106</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y28" t="n">
-        <v>848.0708164780106</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.807527238423</v>
+        <v>1935.36653093099</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.845010298011</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D29" t="n">
-        <v>863.5793116912607</v>
+        <v>1208.138315383828</v>
       </c>
       <c r="E29" t="n">
-        <v>863.5793116912607</v>
+        <v>822.350062785584</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912089</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539436</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W29" t="n">
-        <v>2741.012457539436</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X29" t="n">
-        <v>2367.546699278356</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.407367302545</v>
+        <v>1935.36653093099</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>449.8213709509845</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>449.8213709509845</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>299.7047315386487</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>299.7047315386487</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>152.8147840407384</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6648,25 +6648,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>831.0920506559569</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>831.0920506559569</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>541.9891837816004</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>287.3046955757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W31" t="n">
-        <v>287.3046955757135</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X31" t="n">
-        <v>287.3046955757135</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218342</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1311.909787855438</v>
+        <v>2001.6439622052</v>
       </c>
       <c r="C32" t="n">
-        <v>942.9472709150266</v>
+        <v>1632.681445264788</v>
       </c>
       <c r="D32" t="n">
-        <v>584.6815723082761</v>
+        <v>1274.415746658038</v>
       </c>
       <c r="E32" t="n">
-        <v>584.6815723082761</v>
+        <v>888.6274940597932</v>
       </c>
       <c r="F32" t="n">
-        <v>584.6815723082761</v>
+        <v>477.6415892701856</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y32" t="n">
-        <v>1698.50962791956</v>
+        <v>2388.243802269321</v>
       </c>
     </row>
     <row r="33">
@@ -6770,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>553.2677753977071</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C34" t="n">
-        <v>384.3315924698002</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D34" t="n">
-        <v>234.2149530574645</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>920.887005818185</v>
+        <v>754.2706114983492</v>
       </c>
       <c r="V34" t="n">
-        <v>920.887005818185</v>
+        <v>754.2706114983492</v>
       </c>
       <c r="W34" t="n">
-        <v>920.887005818185</v>
+        <v>754.2706114983492</v>
       </c>
       <c r="X34" t="n">
-        <v>920.887005818185</v>
+        <v>754.2706114983492</v>
       </c>
       <c r="Y34" t="n">
-        <v>734.9162402279468</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1311.909787855438</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="C35" t="n">
-        <v>942.9472709150266</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D35" t="n">
-        <v>584.6815723082761</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E35" t="n">
-        <v>198.8933197100319</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F35" t="n">
-        <v>198.8933197100319</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>198.8933197100319</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>1913.361450159226</v>
       </c>
       <c r="Y35" t="n">
-        <v>1698.50962791956</v>
+        <v>1523.222118183415</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>848.0708164780106</v>
+        <v>795.1487927558362</v>
       </c>
       <c r="U37" t="n">
-        <v>848.0708164780106</v>
+        <v>506.0459258814798</v>
       </c>
       <c r="V37" t="n">
-        <v>848.0708164780106</v>
+        <v>506.0459258814798</v>
       </c>
       <c r="W37" t="n">
-        <v>848.0708164780106</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="X37" t="n">
-        <v>848.0708164780106</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="Y37" t="n">
-        <v>848.0708164780106</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1517.887535471215</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C38" t="n">
-        <v>1148.925018530803</v>
+        <v>1485.020100086186</v>
       </c>
       <c r="D38" t="n">
-        <v>790.6593199240526</v>
+        <v>1485.020100086186</v>
       </c>
       <c r="E38" t="n">
-        <v>404.8710673258084</v>
+        <v>1099.231847487942</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8710673258084</v>
+        <v>688.2459426983341</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>273.1734925433306</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
         <v>2630.721789066531</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796416</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535336</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y38" t="n">
-        <v>1904.487375535336</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>848.0708164780106</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
@@ -7359,25 +7359,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>848.0708164780106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>848.0708164780106</v>
+        <v>821.3475529265497</v>
       </c>
       <c r="U40" t="n">
-        <v>848.0708164780106</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="V40" t="n">
-        <v>848.0708164780106</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="W40" t="n">
-        <v>848.0708164780106</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="X40" t="n">
-        <v>848.0708164780106</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="Y40" t="n">
-        <v>848.0708164780106</v>
+        <v>532.2446860521933</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1565.440264581601</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C41" t="n">
-        <v>1196.47774764119</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D41" t="n">
-        <v>838.2120490344394</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E41" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176917</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.505862906803</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X41" t="n">
-        <v>1952.040104645723</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y41" t="n">
-        <v>1952.040104645723</v>
+        <v>1654.235256616835</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
         <v>1685.951113992584</v>
@@ -7511,25 +7511,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>234.2149530574645</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574645</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574645</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O43" t="n">
         <v>809.015235706886</v>
@@ -7602,19 +7602,19 @@
         <v>699.1203903877115</v>
       </c>
       <c r="U43" t="n">
-        <v>455.0075322009945</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="V43" t="n">
-        <v>455.0075322009945</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="W43" t="n">
-        <v>455.0075322009945</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="X43" t="n">
-        <v>455.0075322009945</v>
+        <v>120.6003534763944</v>
       </c>
       <c r="Y43" t="n">
-        <v>234.2149530574645</v>
+        <v>120.6003534763944</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1594.601034732593</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1225.638517792182</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>867.3728191854311</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218343</v>
@@ -7690,10 +7690,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1594.601034732593</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>701.1808689801002</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="C46" t="n">
-        <v>532.2446860521933</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="D46" t="n">
-        <v>382.1280466398576</v>
+        <v>294.3192627694889</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574645</v>
+        <v>294.3192627694889</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>147.4293152715785</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218343</v>
@@ -7836,22 +7836,22 @@
         <v>920.8870058181855</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181855</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181855</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8870058181855</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="X46" t="n">
-        <v>920.8870058181855</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.8293338103399</v>
+        <v>444.4359021818246</v>
       </c>
     </row>
   </sheetData>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>86.27197698880633</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>67.2382049840829</v>
       </c>
       <c r="U2" t="n">
-        <v>85.99672338893615</v>
+        <v>104.3348437827354</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038154</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510935</v>
+        <v>202.3948476287042</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121496</v>
+        <v>240.3890372235344</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>128.3710175921976</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>4.378130057857021</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>48.87899782081573</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831058</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599460014</v>
+        <v>104.8488620722108</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715801</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860121018</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>61.70981873818779</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>21.72895798776025</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,28 +22743,28 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>26.04487966482523</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>74.18139529270546</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
-        <v>199.921697069394</v>
+        <v>230.723584271063</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971609</v>
+        <v>215.9514149651522</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753917</v>
+        <v>259.9740843058238</v>
       </c>
       <c r="G5" t="n">
-        <v>325.0070150706275</v>
+        <v>413.1696173863946</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973039</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>128.2387758071391</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>81.59093052713877</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>160.9698317718066</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897339</v>
+        <v>219.4555119577252</v>
       </c>
     </row>
     <row r="6">
@@ -22868,7 +22868,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409152</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>38.3381812437712</v>
+        <v>59.08386854792607</v>
       </c>
       <c r="V6" t="n">
-        <v>163.7113177374253</v>
+        <v>66.01816045109692</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459988</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>136.3977332000508</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825422</v>
+        <v>59.34653264837752</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402859</v>
+        <v>17.8453529694016</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709393</v>
+        <v>22.00204076308474</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515973</v>
+        <v>71.38234319379299</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>199.921697069394</v>
+        <v>215.7038047660226</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>296.2572410943615</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988728</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871083</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>162.5797212940405</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23120,10 +23120,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>57.03060314331873</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681753</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310577</v>
+        <v>67.62804997333083</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599460011</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.39952676377831</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346027</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>170.9384612922577</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>228.7603403707194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>91.87369334916288</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>41.54497732730248</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.7750569628794</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>302.9432966408328</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>136.2216706576734</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>6.199124782495915</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>1.235556973335406</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>258.2608625746005</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.595168441781425e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>221.1405358640285</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.6259927259859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>224.0966257588137</v>
       </c>
       <c r="H20" t="n">
-        <v>246.3441520879402</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>86.47315939045725</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24177,10 +24177,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>83.2330105456505</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>367.3519867358065</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>86.85806392784065</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>2.993599618358104</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>145.0671476329186</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3552569271559</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24496,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>170.1349897010399</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>147.4609218293966</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>32.38442515622512</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>28.70124808867843</v>
+        <v>364.1259688926189</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>80.58616732655881</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>100.8720197208362</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>192.5417287234421</v>
+        <v>340.0882417040776</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25131,7 +25131,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>121.2616078289756</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.47359541775896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>163.5503731422505</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.703304017271</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,16 +25365,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>147.4609218293965</v>
+        <v>95.06811834444402</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>75.94636426876474</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>90.01300203728474</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>117.6809978846693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.0048909134504</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>28.86916244948191</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>138.4883409267346</v>
       </c>
     </row>
     <row r="42">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>112.4784535852593</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>44.54010860076312</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>255.1805474109836</v>
       </c>
       <c r="Y44" t="n">
-        <v>283.3684314009565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>85.91778140802708</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,13 +26076,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.9075580643277</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337672</v>
+        <v>402256.5418769754</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337675</v>
+        <v>417888.8482179075</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337672</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>139242.6491112606</v>
+      </c>
+      <c r="C2" t="n">
+        <v>144653.8320754294</v>
+      </c>
+      <c r="D2" t="n">
         <v>149975.680096304</v>
       </c>
-      <c r="C2" t="n">
-        <v>149975.680096304</v>
-      </c>
-      <c r="D2" t="n">
-        <v>149975.6800963039</v>
-      </c>
       <c r="E2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="G2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="H2" t="n">
         <v>296136.8796318747</v>
       </c>
       <c r="I2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="J2" t="n">
         <v>296136.8796318744</v>
       </c>
       <c r="K2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="L2" t="n">
         <v>296136.8796318744</v>
       </c>
       <c r="M2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="N2" t="n">
         <v>296136.8796318744</v>
       </c>
       <c r="O2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="P2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>542655.4349751307</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340611</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679084</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336681</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>38421.40650613414</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136558</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.90722600444</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678774</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723337</v>
+        <v>107.192147960263</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723338</v>
+        <v>122.1898065383436</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26456,7 +26456,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061234</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161353</v>
+        <v>53719.11977902091</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161355</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161353</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26496,19 +26496,19 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732615</v>
+        <v>-458518.1319426716</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.0175475835</v>
+        <v>64626.86678985757</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758341</v>
+        <v>69896.83250792378</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303626</v>
+        <v>-406296.1510900095</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033059</v>
+        <v>220838.4925436584</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436584</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747609</v>
+        <v>182417.086037524</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033054</v>
+        <v>215707.5254415216</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033054</v>
+        <v>215588.5853176536</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542798</v>
+        <v>60382.05067578082</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.492543658</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.492543658</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>530.6136320241911</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26816,19 +26816,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697008</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871344</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803941</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961952</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799152</v>
       </c>
       <c r="E4" t="n">
         <v>643.875868235973</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961952</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799152</v>
       </c>
       <c r="M4" t="n">
         <v>643.875868235973</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961952</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799152</v>
       </c>
       <c r="M4" t="n">
         <v>643.875868235973</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>177.8597534986737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>279.0818904206855</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>278.1878331720421</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>171.5470783449033</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936708</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>2.133120128740465</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>21.84581651846329</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>82.23711376326686</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>181.0459045266862</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>271.3408795762702</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>336.6223547162112</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>374.5572298056995</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>359.4067440913203</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>48.6084749336734</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>9.337733363561391</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>39.29544350367831</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>184.2981329267419</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>289.1844294531841</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>250.7587721263538</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>70.86194882013635</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.19951633606083</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>4.600320073870108</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07508683472040444</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9568442544698528</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>8.507215280650152</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>28.77491630714794</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>67.64888879101859</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>80.12265843565285</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>43.02319711461719</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017006</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>4.088334541825733</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905542</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>40.01831452431469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>37.57267093057309</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764925</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>51.25102853128965</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>100.855939746224</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>144.2109965784267</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>129.3085326696336</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>75.51234515777054</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>8.047286428072596</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>46.45669395238295</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>147.0503955311658</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>108.1625276819093</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>83.96763325613423</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646066</v>
+        <v>7.371968606034216</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061144</v>
+        <v>11.0639022326101</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520815</v>
+        <v>18.73772222104901</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400438</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687118</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
